--- a/results/I3_N5_M2_T45_C100_DepCentral_s1_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2382.005728880667</v>
+        <v>1833.400726831333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.85427248955245</v>
+        <v>9.935004806263807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.914294316987418</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2160.8</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.95</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38.76072200618817</v>
+        <v>41.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.60181147454999</v>
+        <v>3.914294316987416</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.48909622152298</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.45608396410244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.2093610446023</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1136,6 +1136,76 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>256.4799999999991</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>254.7249999999991</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>253.1349999999991</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>256.0399999999991</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>252.0599999999991</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999971</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83499999999971</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.5099999999988</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>127.0749999999988</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>116.2799999999988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>128.7849999999988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>128.5799999999988</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>164.8600000000009</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>156.4850000000009</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.6700000000009</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>161.1200000000009</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>165.8250000000009</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>256.4799999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>254.7249999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>253.1349999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>256.0399999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>252.0599999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>164.8600000000009</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.4850000000009</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.6700000000009</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>161.1200000000009</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>165.8250000000009</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>156.4799999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>154.7249999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>153.1349999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>156.0399999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>152.0599999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.86000000000089</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.48500000000087</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>59.67000000000087</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>61.12000000000086</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>65.8250000000009</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2176,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2187,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2198,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2209,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
